--- a/output/Дефициты ШМТ 2024-03-20.xlsx
+++ b/output/Дефициты ШМТ 2024-03-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>525</v>
+        <v>432</v>
       </c>
       <c r="B2" t="n">
         <v>112789</v>
@@ -546,7 +546,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2522775052557814</v>
+        <v>0.2019446522064323</v>
       </c>
       <c r="K2" t="n">
         <v>7.39</v>
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>11380</v>
+        <v>10220</v>
       </c>
       <c r="N2" t="n">
-        <v>84098.2</v>
+        <v>75525.8</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="B3" t="n">
         <v>106395</v>
@@ -609,7 +609,7 @@
         <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2990843417843832</v>
+        <v>0.2711367007448285</v>
       </c>
       <c r="K3" t="n">
         <v>15</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>337</v>
+        <v>417</v>
       </c>
       <c r="B4" t="n">
         <v>111451</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B5" t="n">
         <v>105397</v>
@@ -735,7 +735,7 @@
         <v>39</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3835800807537012</v>
+        <v>0.3969359331476323</v>
       </c>
       <c r="K5" t="n">
         <v>14</v>
@@ -746,10 +746,10 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>5128</v>
+        <v>5315.5</v>
       </c>
       <c r="N5" t="n">
-        <v>71792</v>
+        <v>74417</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -759,24 +759,24 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B6" t="n">
-        <v>120100</v>
+        <v>113373</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+          <t>Стакан бумажный 250 мл 1 сл., d80 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ПК ДИАПАЗОН ООО</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -786,22 +786,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Тарелки</t>
+          <t>Стаканы</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Тарелки мелкие ПС D 200-320 мм белые без секций</t>
+          <t>Стаканы бумажные 250-290 мл с дизайном 1-слойные</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3237828631174219</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K6" t="n">
-        <v>9.119999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>7400</v>
+        <v>6100</v>
       </c>
       <c r="N6" t="n">
-        <v>67488</v>
+        <v>63440</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -822,14 +822,14 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>433</v>
+        <v>238</v>
       </c>
       <c r="B7" t="n">
-        <v>113373</v>
+        <v>112790</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Стакан бумажный 250 мл 1 сл., d80 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Соусник 80 мл, d70хh36 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -849,33 +849,33 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Стаканы</t>
+          <t>Соусники и крышки</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Стаканы бумажные 250-290 мл с дизайном 1-слойные</t>
+          <t>Соусники ПП с неразъемной крышкой от 50 мл</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.95</v>
       </c>
       <c r="K7" t="n">
-        <v>10.4</v>
+        <v>9.68</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>6100</v>
+        <v>5820</v>
       </c>
       <c r="N7" t="n">
-        <v>63440</v>
+        <v>56337.6</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -885,14 +885,14 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="B8" t="n">
-        <v>112790</v>
+        <v>106390</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Соусник 80 мл, d70хh36 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
+          <t>Контейнер 350 мл 1-секц., овал 155х125х45 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -912,33 +912,33 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Соусники и крышки</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Соусники ПП с неразъемной крышкой от 50 мл</t>
+          <t>Контейнеры универсальные ПЭТ овальные и проч. прозрачные с неразъемной крышкой до 500 мл</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>0.95</v>
+        <v>0.2765432098765432</v>
       </c>
       <c r="K8" t="n">
-        <v>9.68</v>
+        <v>15.5</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Ядерные</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>5820</v>
+        <v>3577.5</v>
       </c>
       <c r="N8" t="n">
-        <v>56337.6</v>
+        <v>55451.25</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -948,14 +948,14 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>325</v>
+        <v>426</v>
       </c>
       <c r="B9" t="n">
-        <v>106390</v>
+        <v>113710</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Контейнер 350 мл 1-секц., овал 155х125х45 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
+          <t>Крышка к контейнеру 178х178х13,5 мм, прозр., ПЭТ, 300 шт/кор "OSQ" OpSalad 1200</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -980,28 +980,28 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПЭТ овальные и проч. прозрачные с неразъемной крышкой до 500 мл</t>
+          <t>Крышки к прямоугольным контейнерам универсальные ПЭТ</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2765432098765432</v>
+        <v>0.5572224603514788</v>
       </c>
       <c r="K9" t="n">
-        <v>15.5</v>
+        <v>33.21</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Ядерные</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>3577.5</v>
+        <v>1612.5</v>
       </c>
       <c r="N9" t="n">
-        <v>55451.25</v>
+        <v>53551.125</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1011,14 +1011,14 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>288</v>
+        <v>167</v>
       </c>
       <c r="B10" t="n">
-        <v>113710</v>
+        <v>110626</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру 178х178х13,5 мм, прозр., ПЭТ, 300 шт/кор "OSQ" OpSalad 1200</t>
+          <t>Контейнер 1200 мл, 167х167х63 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1038,12 +1038,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Контейнеры из натура</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Крышки к прямоугольным контейнерам универсальные ПЭТ</t>
+          <t>Контейнеры универсальные картонные прямоугольные от 1000 мл</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1053,7 +1053,7 @@
         <v>0.5572224603514788</v>
       </c>
       <c r="K10" t="n">
-        <v>33.21</v>
+        <v>32.02</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>1612.5</v>
       </c>
       <c r="N10" t="n">
-        <v>53551.125</v>
+        <v>51632.25000000001</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1074,24 +1074,24 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="B11" t="n">
-        <v>110626</v>
+        <v>114812</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Контейнер 1200 мл, 167х167х63 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+          <t>Пакет [240+140]х280 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Вита Групп)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>ВИТА ГРУПП ООО</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1101,33 +1101,33 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Контейнеры из натура</t>
+          <t>Пакеты-сумки</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные картонные прямоугольные от 1000 мл</t>
+          <t>Пакеты бумажные с кручеными ручками бурый крафт</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5572224603514788</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K11" t="n">
-        <v>32.02</v>
+        <v>26.33</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1612.5</v>
+        <v>1900</v>
       </c>
       <c r="N11" t="n">
-        <v>51632.25000000001</v>
+        <v>50027</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1137,24 +1137,24 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="B12" t="n">
-        <v>114812</v>
+        <v>113378</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Пакет [240+140]х280 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Вита Групп)</t>
+          <t>Стакан бумажный 300 мл 1 сл., d90 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ВИТА ГРУПП ООО</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1164,33 +1164,33 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Пакеты-сумки</t>
+          <t>Стаканы</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Пакеты бумажные с кручеными ручками бурый крафт</t>
+          <t>Стаканы бумажные 300-390 мл цветные однотонные 1-слойные</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.599250936329588</v>
       </c>
       <c r="K12" t="n">
-        <v>26.33</v>
+        <v>16.97</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1900</v>
+        <v>2912.5</v>
       </c>
       <c r="N12" t="n">
-        <v>50027</v>
+        <v>49425.125</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1200,24 +1200,24 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B13" t="n">
-        <v>112173</v>
+        <v>120100</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Бутылка ПЭТ 1000 мл, прозр., горло d38 мм, крышка в компл., 100 шт/кор (ИП PET Service)</t>
+          <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ИП PET Service</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1227,22 +1227,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Бутылки ПЭТ и крышки</t>
+          <t>Тарелки</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Бутылки ПЭТ 1.0-1.5 л широкое горло прозрачные</t>
+          <t>Тарелки мелкие ПС D 200-320 мм белые без секций</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3559322033898305</v>
+        <v>0.3602318992851648</v>
       </c>
       <c r="K13" t="n">
-        <v>50</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>931</v>
+        <v>5150</v>
       </c>
       <c r="N13" t="n">
-        <v>46550</v>
+        <v>46967.99999999999</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1263,14 +1263,14 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>380</v>
+        <v>208</v>
       </c>
       <c r="B14" t="n">
-        <v>113378</v>
+        <v>112173</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Стакан бумажный 300 мл 1 сл., d90 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Бутылка ПЭТ 1000 мл, прозр., горло d38 мм, крышка в компл., 100 шт/кор (ИП PET Service)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>ИП PET Service</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1290,22 +1290,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Стаканы</t>
+          <t>Бутылки ПЭТ и крышки</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Стаканы бумажные 300-390 мл цветные однотонные 1-слойные</t>
+          <t>Бутылки ПЭТ 1.0-1.5 л широкое горло прозрачные</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6310344827586207</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="K14" t="n">
-        <v>16.97</v>
+        <v>50</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1313,10 +1313,10 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>2725</v>
+        <v>931</v>
       </c>
       <c r="N14" t="n">
-        <v>46243.25</v>
+        <v>46550</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B15" t="n">
         <v>115603</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>505</v>
+        <v>386</v>
       </c>
       <c r="B16" t="n">
         <v>115784</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>367</v>
+        <v>482</v>
       </c>
       <c r="B17" t="n">
         <v>115786</v>
@@ -1515,24 +1515,24 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="B18" t="n">
-        <v>307974</v>
+        <v>112341</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Салфетки ажурные d280 мм, бел., бум., 250 шт/упак (ООО Бэндерс РС)</t>
+          <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>БЭНДЕРС РС ООО</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1542,33 +1542,33 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Салфетки сервировочн</t>
+          <t>Контейнеры из натура</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Салфетки сервировочные ажурные D от 20 см</t>
+          <t>Контейнеры универсальные картонные прямоугольные 500-749 мл</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7875984498062257</v>
       </c>
       <c r="K18" t="n">
-        <v>1086.12</v>
+        <v>19.96</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>36.75</v>
+        <v>2100</v>
       </c>
       <c r="N18" t="n">
-        <v>39914.91</v>
+        <v>41916</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1578,24 +1578,24 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>407</v>
+        <v>48</v>
       </c>
       <c r="B19" t="n">
-        <v>113374</v>
+        <v>307974</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Стакан бумажный 300 мл 1 сл., d90 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Салфетки ажурные d280 мм, бел., бум., 250 шт/упак (ООО Бэндерс РС)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>БЭНДЕРС РС ООО</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1605,33 +1605,33 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Стаканы</t>
+          <t>Салфетки сервировочн</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Стаканы бумажные 300-390 мл с дизайном 1-слойные</t>
+          <t>Салфетки сервировочные ажурные D от 20 см</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6172839506172839</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="K19" t="n">
-        <v>18.29</v>
+        <v>1086.12</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2050</v>
+        <v>36.75</v>
       </c>
       <c r="N19" t="n">
-        <v>37494.5</v>
+        <v>39914.91</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1641,14 +1641,14 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B20" t="n">
-        <v>113926</v>
+        <v>113374</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Пакет [240+140]х280 мм с плоск. ручками, крафт, бум., 300 шт/кор (ООО Тек-Пак)</t>
+          <t>Стакан бумажный 300 мл 1 сл., d90 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ТЕК-ПАК ООО</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1668,22 +1668,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Пакеты-сумки</t>
+          <t>Стаканы</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Пакеты бумажные с плоскими ручками бурый крафт</t>
+          <t>Стаканы бумажные 300-390 мл с дизайном 1-слойные</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2666055504625385</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="K20" t="n">
-        <v>24.64</v>
+        <v>18.29</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1500</v>
+        <v>2050</v>
       </c>
       <c r="N20" t="n">
-        <v>36960</v>
+        <v>37494.5</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1704,14 +1704,14 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>528</v>
+        <v>333</v>
       </c>
       <c r="B21" t="n">
-        <v>113074</v>
+        <v>113926</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Перчатки нитровиниловые, р-р L, неопудрен., черн., 50 пар/упак "МИСТЕРИЯ"</t>
+          <t>Пакет [240+140]х280 мм с плоск. ручками, крафт, бум., 300 шт/кор (ООО Тек-Пак)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jiangxi Rainbow</t>
+          <t>ТЕК-ПАК ООО</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1731,22 +1731,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Средства индивидуаль</t>
+          <t>Пакеты-сумки</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Перчатки нитриловые размер L</t>
+          <t>Пакеты бумажные с плоскими ручками бурый крафт</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7679870654810024</v>
+        <v>0.2666055504625385</v>
       </c>
       <c r="K21" t="n">
-        <v>15.2</v>
+        <v>24.64</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>2031.25</v>
+        <v>1500</v>
       </c>
       <c r="N21" t="n">
-        <v>30875</v>
+        <v>36960</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B22" t="n">
         <v>123250</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
-        <v>0.21256038647343</v>
+        <v>0.2303664921465969</v>
       </c>
       <c r="K22" t="n">
         <v>7.04</v>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>4189.5</v>
+        <v>5227</v>
       </c>
       <c r="N22" t="n">
-        <v>29494.08</v>
+        <v>36798.08</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1830,14 +1830,14 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>271</v>
+        <v>383</v>
       </c>
       <c r="B23" t="n">
-        <v>114508</v>
+        <v>113074</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Упаковка [коробка] для сэндвичей 130х130х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/у</t>
+          <t>Перчатки нитровиниловые, р-р L, неопудрен., черн., 50 пар/упак "МИСТЕРИЯ"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>Jiangxi Rainbow</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1857,22 +1857,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Контейнеры для сэндв</t>
+          <t>Средства индивидуаль</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Контейнеры картонные для сэндвичей</t>
+          <t>Перчатки нитриловые размер L</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8287292817679558</v>
+        <v>0.7679870654810024</v>
       </c>
       <c r="K23" t="n">
-        <v>21.96</v>
+        <v>15.2</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1150</v>
+        <v>2031.25</v>
       </c>
       <c r="N23" t="n">
-        <v>25254</v>
+        <v>30875</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1893,14 +1893,14 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>227</v>
+        <v>349</v>
       </c>
       <c r="B24" t="n">
-        <v>106389</v>
+        <v>114508</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Контейнер 250 мл 1-секц., овал 155х125х35 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
+          <t>Упаковка [коробка] для сэндвичей 130х130х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/у</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1920,22 +1920,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Контейнеры для сэндв</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПЭТ овальные и проч. прозрачные с неразъемной крышкой до 500 мл</t>
+          <t>Контейнеры картонные для сэндвичей</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5396145610278372</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="K24" t="n">
-        <v>14.5</v>
+        <v>21.96</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1672</v>
+        <v>1150</v>
       </c>
       <c r="N24" t="n">
-        <v>24244</v>
+        <v>25254</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1956,24 +1956,24 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B25" t="n">
-        <v>187320</v>
+        <v>106389</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Набор одноразовой посуды "Пикник Мистерия" [12 стак. 200 мл, ПП+12 тар. d205 мм, ПС+12 вил.]</t>
+          <t>Контейнер 250 мл 1-секц., овал 155х125х35 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ПК ДИАПАЗОН ООО</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1983,22 +1983,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Наборы одноразовой п</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Наборы одноразовой посуды на 12 персон</t>
+          <t>Контейнеры универсальные ПЭТ овальные и проч. прозрачные с неразъемной крышкой до 500 мл</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5063145809414467</v>
       </c>
       <c r="K25" t="n">
-        <v>243.64</v>
+        <v>14.5</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2006,10 +2006,10 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>98</v>
+        <v>1672</v>
       </c>
       <c r="N25" t="n">
-        <v>23876.72</v>
+        <v>24244</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2019,14 +2019,14 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>102186</v>
+        <v>187320</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Мешок для мусора 180 л, [70+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+          <t>Набор одноразовой посуды "Пикник Мистерия" [12 стак. 200 мл, ПП+12 тар. d205 мм, ПС+12 вил.]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">ТЕХИНВЕСТ ПЛЮС </t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2046,22 +2046,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Мешки для мусора</t>
+          <t>Наборы одноразовой п</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Мешки для мусора в рулонах 180 л</t>
+          <t>Наборы одноразовой посуды на 12 персон</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5335365853658537</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="K26" t="n">
-        <v>421.91</v>
+        <v>243.64</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N26" t="n">
-        <v>21095.5</v>
+        <v>23876.72</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2082,24 +2082,24 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>106916</v>
+        <v>102186</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ведро пищевое 850 мл, d109хh124 мм, с ручкой, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
+          <t>Мешок для мусора 180 л, [70+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t xml:space="preserve">ТЕХИНВЕСТ ПЛЮС </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2109,22 +2109,22 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ведра и контейнеры д</t>
+          <t>Мешки для мусора</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Ведра пищевые до 1.0 л</t>
+          <t>Мешки для мусора в рулонах 180 л</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4576271186440678</v>
+        <v>0.5335365853658537</v>
       </c>
       <c r="K27" t="n">
-        <v>42</v>
+        <v>421.91</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2132,10 +2132,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>501</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>21042</v>
+        <v>21095.5</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2145,24 +2145,24 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>274</v>
+        <v>98</v>
       </c>
       <c r="B28" t="n">
-        <v>254501</v>
+        <v>106916</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ланч-бокс 1-секц. 250х210х65 мм, бел., ВПС 100 шт/кор "Алпина"</t>
+          <t>Ведро пищевое 850 мл, d109хh124 мм, с ручкой, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>АЛПИНА ООО</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2172,22 +2172,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Лотки и ланч-боксы</t>
+          <t>Ведра и контейнеры д</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Ланч-боксы ВПС 1-секционные белые</t>
+          <t>Ведра пищевые до 1.0 л</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3495145631067961</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="K28" t="n">
-        <v>26.19</v>
+        <v>42</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
       <c r="N28" t="n">
-        <v>20952</v>
+        <v>21042</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2208,24 +2208,24 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>375</v>
+        <v>211</v>
       </c>
       <c r="B29" t="n">
-        <v>112170</v>
+        <v>254501</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Бутылка ПЭТ 500 мл, прозр., горло d38 мм, крышка в компл., 200 шт/кор (ИП PET Service)</t>
+          <t>Ланч-бокс 1-секц. 250х210х65 мм, бел., ВПС 100 шт/кор "Алпина"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ИП PET Service</t>
+          <t>АЛПИНА ООО</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2235,33 +2235,33 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Бутылки ПЭТ и крышки</t>
+          <t>Лотки и ланч-боксы</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Бутылки ПЭТ 0.5-0.9 л широкое горло</t>
+          <t>Ланч-боксы ВПС 1-секционные белые</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2</v>
+        <v>0.3495145631067961</v>
       </c>
       <c r="K29" t="n">
-        <v>49</v>
+        <v>26.19</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N29" t="n">
-        <v>19600</v>
+        <v>20952</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2271,14 +2271,14 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>379</v>
+        <v>262</v>
       </c>
       <c r="B30" t="n">
-        <v>113379</v>
+        <v>112170</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Стакан бумажный 400 мл 1 сл., d90 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Бутылка ПЭТ 500 мл, прозр., горло d38 мм, крышка в компл., 200 шт/кор (ИП PET Service)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>ИП PET Service</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2298,22 +2298,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Стаканы</t>
+          <t>Бутылки ПЭТ и крышки</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Стаканы бумажные 400-490 мл цветные однотонные 1-слойные</t>
+          <t>Бутылки ПЭТ 0.5-0.9 л широкое горло</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="K30" t="n">
-        <v>17.73</v>
+        <v>49</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N30" t="n">
-        <v>17730</v>
+        <v>19600</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2334,24 +2334,24 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="B31" t="n">
-        <v>102736</v>
+        <v>113379</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Салфетка из микрофибры 300х300 мм, 220 гр/м2, желт., 300 шт/кор (ООО ПК Хозгрупп)</t>
+          <t>Стакан бумажный 400 мл 1 сл., d90 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>СТАРТРЕЙД ООО</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2361,22 +2361,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Инвентарь для уборки</t>
+          <t>Стаканы</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Салфетки для уборки из микрофибры</t>
+          <t>Стаканы бумажные 400-490 мл цветные однотонные 1-слойные</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K31" t="n">
-        <v>70.06999999999999</v>
+        <v>17.73</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2384,10 +2384,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="N31" t="n">
-        <v>17517.5</v>
+        <v>17730</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2397,14 +2397,14 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="B32" t="n">
-        <v>114521</v>
+        <v>112682</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Контейнер 1300 мл, d185хh70 мм, без окна, без крышки, крафт-бел., карт., 35 шт/упак "OSQ" Round Bowl</t>
+          <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>Guangzhou Gorla</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2424,33 +2424,33 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Контейнеры из натура</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные картонные круглые от 500 мл</t>
+          <t>Зубочистки в индивидуальной бумажной упаковке</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8122765196662693</v>
+        <v>0.2730375426621161</v>
       </c>
       <c r="K32" t="n">
-        <v>41.48</v>
+        <v>357.29</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Ядерные</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="N32" t="n">
-        <v>17421.6</v>
+        <v>16078.05</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2460,14 +2460,14 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>261</v>
+        <v>425</v>
       </c>
       <c r="B33" t="n">
-        <v>112682</v>
+        <v>114003</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY"</t>
+          <t>Контейнер 400 мл, 145х96х45 мм, без окна, без крышки, крафт-черн., карт., 50 шт/упак "OSQ" OpSalad B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Guangzhou Gorla</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2487,33 +2487,33 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Контейнеры из натура</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Зубочистки в индивидуальной бумажной упаковке</t>
+          <t>Контейнеры универсальные картонные прямоугольные до 500 мл</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2702702702702703</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>357.29</v>
+        <v>18.69</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Ядерные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>45</v>
+        <v>800</v>
       </c>
       <c r="N33" t="n">
-        <v>16078.05</v>
+        <v>14952</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2523,24 +2523,24 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>334</v>
+        <v>105</v>
       </c>
       <c r="B34" t="n">
-        <v>114003</v>
+        <v>307973</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Контейнер 400 мл, 145х96х45 мм, без окна, без крышки, крафт-черн., карт., 50 шт/упак "OSQ" OpSalad B</t>
+          <t>Салфетки ажурные d260 мм, бел., бум., 250 шт/упак (ООО Бэндерс РС)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>БЭНДЕРС РС ООО</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2550,22 +2550,22 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Контейнеры из натура</t>
+          <t>Салфетки сервировочн</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные картонные прямоугольные до 500 мл</t>
+          <t>Салфетки сервировочные ажурные D от 20 см</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="K34" t="n">
-        <v>18.69</v>
+        <v>920.67</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2573,10 +2573,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>800</v>
+        <v>14</v>
       </c>
       <c r="N34" t="n">
-        <v>14952</v>
+        <v>12889.38</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2586,14 +2586,14 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="B35" t="n">
-        <v>102739</v>
+        <v>307972</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Салфетка из микрофибры 300х300 мм, 220 гр/м2, син., 300 шт/кор (ООО ПК Хозгрупп)</t>
+          <t>Салфетки ажурные d240 мм, бел., бум., 250 шт/упак (ООО Бэндерс РС)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>СТАРТРЕЙД ООО</t>
+          <t>БЭНДЕРС РС ООО</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2613,22 +2613,22 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Инвентарь для уборки</t>
+          <t>Салфетки сервировочн</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Салфетки для уборки из микрофибры</t>
+          <t>Салфетки сервировочные ажурные D от 20 см</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="K35" t="n">
-        <v>70.17</v>
+        <v>878.97</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2636,10 +2636,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="N35" t="n">
-        <v>14034</v>
+        <v>12305.58</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2649,24 +2649,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="B36" t="n">
-        <v>307973</v>
+        <v>104834</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Салфетки ажурные d260 мм, бел., бум., 250 шт/упак (ООО Бэндерс РС)</t>
+          <t>Крышка к контейнеру 155х110х13,5 мм, прозр., ПЭТ, 800 шт/кор "OSQ" OpSalad 400/450</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>БЭНДЕРС РС ООО</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2676,22 +2676,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Салфетки сервировочн</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Салфетки сервировочные ажурные D от 20 см</t>
+          <t>Крышки к прямоугольным контейнерам универсальные ПЭТ</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>0.875</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="K36" t="n">
-        <v>920.67</v>
+        <v>15.28</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>14</v>
+        <v>762.5</v>
       </c>
       <c r="N36" t="n">
-        <v>12889.38</v>
+        <v>11651</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2712,14 +2712,14 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>307972</v>
+        <v>100024</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Салфетки ажурные d240 мм, бел., бум., 250 шт/упак (ООО Бэндерс РС)</t>
+          <t>Коробка для пиццы 300х300х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>БЭНДЕРС РС ООО</t>
+          <t>КТК ООО</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2739,33 +2739,33 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Салфетки сервировочн</t>
+          <t>Коробки для пиццы</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Салфетки сервировочные ажурные D от 20 см</t>
+          <t>Коробки для пиццы белые из микрогофрокартона 300-390 мм</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>0.875</v>
+        <v>0.569583931133429</v>
       </c>
       <c r="K37" t="n">
-        <v>878.97</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>14</v>
+        <v>170.25</v>
       </c>
       <c r="N37" t="n">
-        <v>12305.58</v>
+        <v>11347.1625</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2775,14 +2775,14 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>141</v>
+        <v>420</v>
       </c>
       <c r="B38" t="n">
-        <v>104834</v>
+        <v>111452</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру 155х110х13,5 мм, прозр., ПЭТ, 800 шт/кор "OSQ" OpSalad 400/450</t>
+          <t>Коробка для картофеля фри 105х50х110 мм, M, крафт-бел., карт., 50 шт/упак "OSQ" Eco Fry</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2802,33 +2802,33 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Упаковка пищевая бум</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Крышки к прямоугольным контейнерам универсальные ПЭТ</t>
+          <t>Коробки для картофеля фри M без печати</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="K38" t="n">
-        <v>15.28</v>
+        <v>11.99</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>762.5</v>
+        <v>900</v>
       </c>
       <c r="N38" t="n">
-        <v>11651</v>
+        <v>10791</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2838,14 +2838,14 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>425</v>
+        <v>340</v>
       </c>
       <c r="B39" t="n">
-        <v>111452</v>
+        <v>114517</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Коробка для картофеля фри 105х50х110 мм, M, крафт-бел., карт., 50 шт/упак "OSQ" Eco Fry</t>
+          <t>Супница 500 мл, d100хh95 мм, без крышки, крафт-бел., карт., 30 шт/упак "OSQ" Round Bowl</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2865,33 +2865,33 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Упаковка пищевая бум</t>
+          <t>Супницы и крышки</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Коробки для картофеля фри M без печати</t>
+          <t>Супницы от 500 мл</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3611111111111111</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>11.99</v>
+        <v>20.89</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="N39" t="n">
-        <v>10791</v>
+        <v>9400.5</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2901,14 +2901,14 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>473</v>
+        <v>373</v>
       </c>
       <c r="B40" t="n">
-        <v>114517</v>
+        <v>112683</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Супница 500 мл, d100хh95 мм, без крышки, крафт-бел., карт., 30 шт/упак "OSQ" Round Bowl</t>
+          <t>Палочки для шашлыка 250 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>Guangzhou Gorla</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2928,33 +2928,33 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Супницы и крышки</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Супницы от 500 мл</t>
+          <t>Палочки для шашлыка</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0.2925170068027211</v>
       </c>
       <c r="K40" t="n">
-        <v>20.89</v>
+        <v>87.09</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>9400.5</v>
+        <v>8709</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2964,14 +2964,14 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>358</v>
+        <v>83</v>
       </c>
       <c r="B41" t="n">
-        <v>112683</v>
+        <v>106917</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Палочки для шашлыка 250 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+          <t>Ведро пищевое 550 мл, d109хh79 мм, без ручки, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Guangzhou Gorla</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2991,33 +2991,33 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Ведра и контейнеры д</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Палочки для шашлыка</t>
+          <t>Ведра пищевые до 1.0 л</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2925170068027211</v>
+        <v>0.2559523809523809</v>
       </c>
       <c r="K41" t="n">
-        <v>87.09</v>
+        <v>29</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Ядерные</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N41" t="n">
-        <v>8709</v>
+        <v>8700</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3027,24 +3027,24 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>233</v>
+        <v>372</v>
       </c>
       <c r="B42" t="n">
-        <v>106917</v>
+        <v>112308</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ведро пищевое 550 мл, d109хh79 мм, без ручки, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
+          <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>ТК ТАСМА ООО</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3054,33 +3054,33 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ведра и контейнеры д</t>
+          <t>Пакеты фасовочные</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Ведра пищевые до 1.0 л</t>
+          <t>Пакеты вакуумные 65 (70) мкм</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2544378698224852</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>29</v>
+        <v>1607.33</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Ядерные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="N42" t="n">
-        <v>8700</v>
+        <v>8036.65</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3090,24 +3090,24 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="B43" t="n">
-        <v>112308</v>
+        <v>109019</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+          <t>Палочки для шашлыка 200 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ТК ТАСМА ООО</t>
+          <t>Guangzhou Gorla</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3117,33 +3117,33 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Пакеты фасовочные</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Пакеты вакуумные 65 (70) мкм</t>
+          <t>Палочки для шашлыка</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0.3874643874643874</v>
       </c>
       <c r="K43" t="n">
-        <v>1607.33</v>
+        <v>72.58</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>8036.65</v>
+        <v>7258</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3153,24 +3153,24 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>490</v>
+        <v>172</v>
       </c>
       <c r="B44" t="n">
-        <v>109019</v>
+        <v>451423</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Палочки для шашлыка 200 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+          <t>Полотенца бумажные 2-сл., бел., 10 м, 2 рул/упак "Familia" Радуга</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Guangzhou Gorla</t>
+          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3180,22 +3180,22 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Полотенца бумажные</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Палочки для шашлыка</t>
+          <t>Полотенца бумажные бытовые в рулонах 2-слойные из целлюлозы</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3874643874643874</v>
+        <v>0.45662100456621</v>
       </c>
       <c r="K44" t="n">
-        <v>72.58</v>
+        <v>263.1</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>26.5</v>
       </c>
       <c r="N44" t="n">
-        <v>7258</v>
+        <v>6972.150000000001</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3216,14 +3216,14 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="B45" t="n">
-        <v>451423</v>
+        <v>101043</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Полотенца бумажные 2-сл., бел., 10 м, 2 рул/упак "Familia" Радуга</t>
+          <t>Палочки для шашлыка 200 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
+          <t>Jiangxi Jing Nu</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3243,33 +3243,33 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Полотенца бумажные</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Полотенца бумажные бытовые в рулонах 2-слойные из целлюлозы</t>
+          <t>Палочки для шашлыка</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0.45662100456621</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>263.1</v>
+        <v>53.77</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>26.5</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>6972.150000000001</v>
+        <v>5377</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3279,14 +3279,14 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="B46" t="n">
-        <v>101043</v>
+        <v>106101</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Палочки для шашлыка 200 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+          <t>Упаковка для бургера типа "Уголок" 170х150 мм, диз. "Food`корт", разноцв., бум., 1000 шт/кор (ООО Фл</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Jiangxi Jing Nu</t>
+          <t>ФЛЕКСАПРИНТ ООО</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3306,33 +3306,33 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Упаковка пищевая бум</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Палочки для шашлыка</t>
+          <t>Упаковка для бургеров и хот-догов типа "Уголок" с печатью, логотипом</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0.4379562043795621</v>
       </c>
       <c r="K46" t="n">
-        <v>53.77</v>
+        <v>5.11</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N46" t="n">
-        <v>5377</v>
+        <v>5110</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3342,24 +3342,24 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="B47" t="n">
-        <v>106101</v>
+        <v>107231</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Упаковка для бургера типа "Уголок" 170х150 мм, диз. "Food`корт", разноцв., бум., 1000 шт/кор (ООО Фл</t>
+          <t>Контейнер 400 мл, 145х96х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ФЛЕКСАПРИНТ ООО</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3369,33 +3369,33 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Упаковка пищевая бум</t>
+          <t>Контейнеры из натура</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Упаковка для бургеров и хот-догов типа "Уголок" с печатью, логотипом</t>
+          <t>Контейнеры универсальные картонные прямоугольные до 500 мл</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4379562043795621</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K47" t="n">
-        <v>5.11</v>
+        <v>16.7</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N47" t="n">
-        <v>5110</v>
+        <v>5010</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3405,14 +3405,14 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>118</v>
+        <v>475</v>
       </c>
       <c r="B48" t="n">
-        <v>107231</v>
+        <v>114436</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Контейнер 400 мл, 145х96х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+          <t>Стакан бумажный 400 мл 1 сл., d90 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3432,33 +3432,33 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Контейнеры из натура</t>
+          <t>Стаканы</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные картонные прямоугольные до 500 мл</t>
+          <t>Стаканы бумажные 400-490 мл белые, крафт 1-слойные</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="K48" t="n">
-        <v>16.7</v>
+        <v>18.93</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="N48" t="n">
-        <v>5010</v>
+        <v>4259.25</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -3468,24 +3468,24 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="B49" t="n">
-        <v>114436</v>
+        <v>114531</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Стакан бумажный 400 мл 1 сл., d90 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Губка поролоновая для посуды 110х80х30 мм XXXL, цвет в ассорт., 10 шт/упак (ООО ПФ Прайд)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>ПРАЙД ООО</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3495,98 +3495,35 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Стаканы</t>
+          <t>Инвентарь для уборки</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Стаканы бумажные 400-490 мл белые, крафт 1-слойные</t>
+          <t>Губки поролоновые</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="K49" t="n">
-        <v>18.93</v>
+        <v>287.72</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="N49" t="n">
-        <v>4259.25</v>
+        <v>2877.2</v>
       </c>
       <c r="O49" t="inlineStr">
-        <is>
-          <t>Дефицит</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B50" t="n">
-        <v>114531</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Губка поролоновая для посуды 110х80х30 мм XXXL, цвет в ассорт., 10 шт/упак (ООО ПФ Прайд)</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>ПРАЙД ООО</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Инвентарь для уборки</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Губки поролоновые</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="K50" t="n">
-        <v>287.72</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Хорошие новинки</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>10</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2877.2</v>
-      </c>
-      <c r="O50" t="inlineStr">
         <is>
           <t>Дефицит</t>
         </is>
